--- a/GPR/results_g/virtual_samples_RBF.xlsx
+++ b/GPR/results_g/virtual_samples_RBF.xlsx
@@ -458,7 +458,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4111394822189697</v>
+        <v>0.4111394852048699</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>1.305856108297738</v>
+        <v>1.305856111306005</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.81835151454821</v>
+        <v>-1.818351514301214</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6832955800899663</v>
+        <v>-0.6832955814037416</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.42243728570762</v>
+        <v>0.4224372837622483</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.008156791791722</v>
+        <v>-3.008156792683989</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7510374519554599</v>
+        <v>0.7510374511724285</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6202484440352887</v>
+        <v>-0.6202484443142715</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>2.15095073159099</v>
+        <v>2.150950731950188</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>4.585044910759979</v>
+        <v>4.585044911457598</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.15482003365519</v>
+        <v>-4.154820034533759</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.011378582474368</v>
+        <v>-1.011378583102354</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.413409909356238</v>
+        <v>2.413409909454545</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>3.656525384040434</v>
+        <v>3.656525384536231</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>4.662627842301916</v>
+        <v>4.662627843006322</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.549030322113929</v>
+        <v>-0.5490303197859729</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3747043128435538</v>
+        <v>0.3747043143614566</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.402712144540998</v>
+        <v>2.402712145050062</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>1.205719086347626</v>
+        <v>1.205719085345009</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5187508911026625</v>
+        <v>0.5187508891742296</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1480374441108267</v>
+        <v>0.1480374451697842</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>1.261681126087626</v>
+        <v>1.261681130425699</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.991264195192334</v>
+        <v>-2.9912641911304</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.745254485979299</v>
+        <v>-1.745254485942532</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04166037933717043</v>
+        <v>0.04166037912262693</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.834472301793691</v>
+        <v>-0.834472302109458</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2290079679267529</v>
+        <v>0.2290079667135893</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5046916168926314</v>
+        <v>0.5046916156188612</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>1.677520801868909</v>
+        <v>1.67752080184547</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>1.113574000476284</v>
+        <v>1.1135740005755</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.111582536245585</v>
+        <v>-1.111582536548109</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.530027081428365</v>
+        <v>-1.530027082140136</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>1.932029631452521</v>
+        <v>1.932029631925549</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>2.963983558949686</v>
+        <v>2.963983559615933</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>1.139716614442616</v>
+        <v>1.139716614573827</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>1.5</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.04362428743383095</v>
+        <v>-0.04362428656940043</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>1.5</v>
       </c>
       <c r="C38" t="n">
-        <v>1.741260156061718</v>
+        <v>1.741260157672833</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>1.5</v>
       </c>
       <c r="C39" t="n">
-        <v>5.373169917947709</v>
+        <v>5.373169916521811</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>1.5</v>
       </c>
       <c r="C40" t="n">
-        <v>2.197690381031299</v>
+        <v>2.197690379285244</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>1.5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1948603309867361</v>
+        <v>0.1948603306716797</v>
       </c>
     </row>
   </sheetData>
